--- a/data/treated/viagem_completa_classificada.xlsx
+++ b/data/treated/viagem_completa_classificada.xlsx
@@ -539,7 +539,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D51612</t>
+          <t>B51612</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>775</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -807,15 +807,11 @@
           <t>I</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2023-02-14 03:57:18</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2023-02-14 04:06:48</t>
-        </is>
+      <c r="N8" s="3" t="n">
+        <v>44971.16479166667</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>44971.17138888889</v>
       </c>
     </row>
     <row r="9">
@@ -874,15 +870,11 @@
           <t>I</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2023-07-14 20:20:34</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2023-07-14 20:32:04</t>
-        </is>
+      <c r="N9" s="3" t="n">
+        <v>45121.84761574074</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>45121.85560185185</v>
       </c>
     </row>
   </sheetData>
